--- a/similarities/split_global/harmonic_similarity_timestamps_277.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_277.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D/3']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:09.336000', '0:00:13.342000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:01.800000', '0:01:09.440000')]</t>
+          <t>('0:00:52.740000', '0:01:00.860000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=61.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'E/4']]</t>
+          <t>['D', 'A', 'B:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['Ab:maj', 'Eb/3', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
+          <t>('0:00:18.302076', '0:00:23.689106')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
+          <t>('0:00:20.996000', '0:00:24.398000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=18.302076</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=20.996</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:02.600000', '0:00:04.500000')]</t>
+          <t>('0:00:36.320000', '0:00:51.920000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.840000')]</t>
+          <t>('0:01:08.080000', '0:01:27.320000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=36.32</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:21.440000')]</t>
+          <t>('0:00:45.720000', '0:00:59.980000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:10.953139', '0:00:19.672232')]</t>
+          <t>('0:00:27.280000', '0:00:57.900000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=27.28</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:01.560000', '0:00:06.900000'), ('0:02:20.480000', '0:02:25.980000'), ('0:00:40.280000', '0:00:45.520000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000'), ('0:01:20.200000', '0:01:26.860000'), ('0:00:36.400000', '0:00:41.700000')]</t>
+          <t>('0:01:08.640000', '0:01:17.380000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=40.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['E', 'A', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['A:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:32.040000', '0:01:44.400000'), ('0:01:40.900000', '0:01:56.600000')]</t>
+          <t>('0:00:05.463061', '0:00:12.591587')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:40.480000', '0:00:43.620000'), ('0:01:02.380000', '0:01:07.200000')]</t>
+          <t>('0:00:09.967000', '0:00:16.743000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=100.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=5.463061</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=40.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=62.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=9.967</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:23.460000', '0:01:30.900000')]</t>
+          <t>('0:00:01.260000', '0:00:07.700000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:17.480000', '0:00:19.720000')]</t>
+          <t>('0:00:07.400000', '0:00:16.480000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:01:58.925813')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>isophonics_51</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:maj', 'A:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Bb', 'G', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:01:24.701000', '0:01:30.135000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:00:34.197755', '0:00:40.606462')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=84.701</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-51#t=34.197755</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:31.340000', '0:00:33.520000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:16.630000', '0:01:27.460000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=31.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=76.63']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:07.580000', '0:00:15.620000')]</t>
+          <t>('0:00:03.826054', '0:00:14.054444')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:37.992880', '0:00:42.009932')]</t>
+          <t>('0:02:03.030000', '0:02:09.120000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=7.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=37.99288']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>isophonics_111</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:21.420000', '0:01:30.040000')]</t>
+          <t>('0:00:31.340000', '0:00:33.520000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:16.260000')]</t>
+          <t>('0:01:10.519024', '0:01:15.720294')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=31.34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['Bb:7', 'Eb/5', 'Bb:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000'), ('0:00:23.300000', '0:00:29.360000'), ('0:00:07.620000', '0:00:11.120000')]</t>
+          <t>('0:00:06.360000', '0:00:13.580000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:16.560000', '0:01:27.040000'), ('0:00:47.580000', '0:00:50.040000'), ('0:01:37.880000', '0:01:48.980000')]</t>
+          <t>('0:04:15.633000', '0:04:18.257000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=7.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=6.36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=255.633</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000')]</t>
+          <t>('0:00:03.826054', '0:00:14.054444')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:33.620000')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:59.800000', '0:01:09.340000')]</t>
+          <t>('0:00:11.070127', '0:00:13.723731')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=59.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
